--- a/SCV24.xlsx
+++ b/SCV24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdleTerran1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B50DE-CA00-42F8-9F67-94F1C79EC2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F87C6-B775-47D5-888C-BFA3F1AE99F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18900" windowHeight="11055" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>터치패드 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,36 @@
   </si>
   <si>
     <t>연구 확률 UIMAnager에서 관리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루크너의 교향곡 9번 중 2악장</t>
+  </si>
+  <si>
+    <t>구스타프 말러는 ‘천인(千人) 교향곡’이라고도 불리는 교향곡 8번</t>
+  </si>
+  <si>
+    <t>브루크너의 교향곡 9번 중 2악장(금성 해왕성 토성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장 도움말(능력치표시?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 다시 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 보상 어떻게할지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 상자 여러개까기 다시 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +304,14 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -308,11 +346,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAF9602-7944-4BEB-986B-22F2C9FCBC9E}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1013,8 +1054,36 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>210120</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1026,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D794DFBF-B0B9-4DAE-9433-FF7068E85492}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,8 +1136,24 @@
         <v>43</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SCV24.xlsx
+++ b/SCV24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdleTerran1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F87C6-B775-47D5-888C-BFA3F1AE99F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E6296C-D06E-4978-8404-25EC60277684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18900" windowHeight="11055" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>터치패드 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,7 +275,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤 상자 여러개까기 다시 만들기</t>
+    <t>랜덤 상자 여러개까기 다시 만들기(미네랄,연구점수,빨강스팀,파랑스팀,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비현황 UI변경 (종류당 몇 개이었는지 표시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAF9602-7944-4BEB-986B-22F2C9FCBC9E}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,6 +1088,11 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/SCV24.xlsx
+++ b/SCV24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdleTerran1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E6296C-D06E-4978-8404-25EC60277684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E5353-547E-40ED-9587-949EA36D239C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="18900" windowHeight="11055" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
+    <workbookView xWindow="-19310" yWindow="-450" windowWidth="19420" windowHeight="10420" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAF9602-7944-4BEB-986B-22F2C9FCBC9E}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>62</v>
       </c>
     </row>

--- a/SCV24.xlsx
+++ b/SCV24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdleTerran1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E5353-547E-40ED-9587-949EA36D239C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326175A0-3B6D-41C1-AEF9-8849DFD3C49B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-450" windowWidth="19420" windowHeight="10420" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>터치패드 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,37 +249,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>구스타프 말러는 ‘천인(千人) 교향곡’이라고도 불리는 교향곡 8번</t>
+  </si>
+  <si>
+    <t>브루크너의 교향곡 9번 중 2악장(금성 해왕성 토성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장 도움말(능력치표시?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 다시 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 보상 어떻게할지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 상자 여러개까기 다시 만들기(미네랄,연구점수,빨강스팀,파랑스팀,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비현황 UI변경 (종류당 몇 개이었는지 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 컨텐츠 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로팅 텍스트 온오프기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 클리어시 완료 뜨도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤박스 내용물 관련 정리(UI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>브루크너의 교향곡 9번 중 2악장</t>
-  </si>
-  <si>
-    <t>구스타프 말러는 ‘천인(千人) 교향곡’이라고도 불리는 교향곡 8번</t>
-  </si>
-  <si>
-    <t>브루크너의 교향곡 9번 중 2악장(금성 해왕성 토성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공장 도움말(능력치표시?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 다시 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임 보상 어떻게할지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 상자 여러개까기 다시 만들기(미네랄,연구점수,빨강스팀,파랑스팀,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비현황 UI변경 (종류당 몇 개이었는지 표시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAF9602-7944-4BEB-986B-22F2C9FCBC9E}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,20 +794,23 @@
       <c r="A23">
         <v>201211</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201212</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -798,17 +818,17 @@
       <c r="A28">
         <v>201216</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -835,7 +855,7 @@
       <c r="A33">
         <v>201217</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H33">
@@ -857,7 +877,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H34">
@@ -922,20 +942,23 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>201223</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I42" t="s">
@@ -943,7 +966,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I43" t="s">
@@ -954,17 +977,17 @@
       <c r="A45">
         <v>201228</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -995,17 +1018,17 @@
       <c r="A54">
         <v>210105</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1053,7 +1076,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1067,32 +1090,55 @@
         <v>210120</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>61</v>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>210124</v>
+      </c>
+      <c r="B78" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D794DFBF-B0B9-4DAE-9433-FF7068E85492}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1147,17 +1193,17 @@
     </row>
     <row r="14" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/SCV24.xlsx
+++ b/SCV24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdleTerran1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326175A0-3B6D-41C1-AEF9-8849DFD3C49B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DD187-5ACC-4FDF-8A74-9183E0F6E0E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="10995" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>터치패드 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,14 @@
   </si>
   <si>
     <t>브루크너의 교향곡 9번 중 2악장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동충전/수집 &gt; 버튼 클릭으로 구매.(뽑기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점, 업적, 광고 UI 위치 변경, 보급품 열기 밖으로 뺌.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAF9602-7944-4BEB-986B-22F2C9FCBC9E}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,12 +1130,12 @@
       <c r="A78">
         <v>210124</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1136,9 +1144,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>210126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D794DFBF-B0B9-4DAE-9433-FF7068E85492}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/SCV24.xlsx
+++ b/SCV24.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdleTerran1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DD187-5ACC-4FDF-8A74-9183E0F6E0E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93E9C1-89CF-4DAA-97D1-9382CA8BF826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="10995" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
+    <workbookView xWindow="-19310" yWindow="-450" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E3930247-3D72-4266-B2D7-F0C44AAFC9C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="플랜" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="코인,상점" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>터치패드 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +306,187 @@
   </si>
   <si>
     <t>상점, 업적, 광고 UI 위치 변경, 보급품 열기 밖으로 뺌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시세(1코인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지 상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레티넘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 50개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가(코인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가(코인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동충전 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동수집 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤보급품 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 재화 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 100개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 500개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 보급품 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동충전 50회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동수집 50회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가(KRW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가(KRW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀팩10,상자10, 
+자동충전25,자동수집25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 완성 &gt; 수량 입력 인풋필드로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +526,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +545,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,15 +562,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,8 +583,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -700,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAF9602-7944-4BEB-986B-22F2C9FCBC9E}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,6 +1383,27 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>210208</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>210217</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1232,4 +1476,408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9976EAE-7334-496D-BAFE-784472222A03}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.25" customWidth="1"/>
+    <col min="7" max="12" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="8">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="8">
+        <f>J7*(1-K7)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="8">
+        <v>60</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9" si="0">J9*(1-K9)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="8">
+        <v>120</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ref="L11" si="1">J11*(1-K11)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="8">
+        <v>240</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13" si="2">J13*(1-K13)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+      <c r="H15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="8">
+        <v>480</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15" si="3">J15*(1-K15)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="3">
+        <f>J25*(1-K25)</f>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:L27" si="4">J26*(1-K26)</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="4"/>
+        <v>38500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>